--- a/outputs/outputs.xlsx
+++ b/outputs/outputs.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="out_2025-05-28_10-42-42_pg1" sheetId="2" r:id="rId2"/>
-    <sheet name="out_2025-05-28_10-42-42_pg2" sheetId="3" r:id="rId3"/>
+    <sheet name="Output-Page1" sheetId="1" r:id="rId1"/>
+    <sheet name="Output-Page2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,155 +398,2012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Start Time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Project Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Seat Type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Production Code</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Operator Name</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Station Number</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Operations</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Total Operations</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Remaining</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Target</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Total Operation Time</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Total Duration</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Total Break Time</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B2" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D2" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E2" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F2" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G2" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>403</v>
+      </c>
+      <c r="M2" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B3" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D3" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F3" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="str">
+        <v>21</v>
+      </c>
+      <c r="M3" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B4" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D4" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F4" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G4" t="str">
+        <v>5</v>
+      </c>
+      <c r="H4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="str">
+        <v>403</v>
+      </c>
+      <c r="M4" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B5" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D5" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F5" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="str">
+        <v>21</v>
+      </c>
+      <c r="M5" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B6" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D6" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E6" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F6" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G6" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="str">
+        <v>403</v>
+      </c>
+      <c r="M6" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B7" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D7" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E7" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F7" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="str">
+        <v>21</v>
+      </c>
+      <c r="M7" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B8" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D8" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F8" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G8" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="str">
+        <v>403</v>
+      </c>
+      <c r="M8" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B9" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D9" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E9" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F9" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="str">
+        <v>21</v>
+      </c>
+      <c r="M9" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B10" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D10" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E10" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F10" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G10" t="str">
+        <v>5</v>
+      </c>
+      <c r="H10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="str">
+        <v>403</v>
+      </c>
+      <c r="M10" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B11" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E11" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F11" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="str">
+        <v>21</v>
+      </c>
+      <c r="M11" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11:36:31</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D12" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E12" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F12" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G12" t="str">
+        <v>5</v>
+      </c>
+      <c r="H12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tighten the shell connection bolts (1 Seat),
+ Tighten  the shell connection bolts (2 Seat),
+ Torque the shell connection bolts (1 Seat),
+ Torque the shell connection bolts (2 Seat),
+ Clean the Loctite,
+ Mount the backrest pad to the shelle (1 Seat),
+ Mount the backrest pad to the shelle (2 Seat),
+ Mark it the Shells Fastners (1 Seat),
+ Mark it the Shells Fastners (2 Seat),
+  Assemble the seat cushion clips. (1 Seat),
+  Assemble the seat cushion clips. (2 Seat)</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="str">
+        <v>403</v>
+      </c>
+      <c r="M12" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="N12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="B13" t="str">
+        <v>12:17:31</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Esos</v>
+      </c>
+      <c r="D13" t="str">
+        <v>SR3012</v>
+      </c>
+      <c r="E13" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="F13" t="str">
+        <v>mehmet mehmet</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Assemble the spacer fasteners</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="str">
+        <v>21</v>
+      </c>
+      <c r="M13" t="str">
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O13"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Date</v>
+        <v>Production Code</v>
       </c>
       <c r="B1" t="str">
-        <v>Start Time</v>
+        <v>Product</v>
       </c>
       <c r="C1" t="str">
-        <v>Project Code</v>
+        <v>Station 1 Start</v>
       </c>
       <c r="D1" t="str">
-        <v>Project Name</v>
+        <v>Station 1 Finish</v>
       </c>
       <c r="E1" t="str">
-        <v>Production Code</v>
+        <v>Duration1</v>
       </c>
       <c r="F1" t="str">
-        <v>Operator Name</v>
+        <v>Station 2 Start</v>
       </c>
       <c r="G1" t="str">
-        <v>Station Number</v>
+        <v>Station 2 Finish</v>
       </c>
       <c r="H1" t="str">
-        <v>Operations</v>
+        <v>Duration2</v>
       </c>
       <c r="I1" t="str">
-        <v>Total Operations</v>
+        <v>Station 3 Start</v>
       </c>
       <c r="J1" t="str">
-        <v>Remaining</v>
+        <v>Station 3 Finish</v>
       </c>
       <c r="K1" t="str">
-        <v>Completed</v>
+        <v>Duration3</v>
       </c>
       <c r="L1" t="str">
-        <v>Total Operation Time</v>
+        <v>Station 4 Start</v>
       </c>
       <c r="M1" t="str">
-        <v>Total Duration</v>
+        <v>Station 4 Finish</v>
       </c>
       <c r="N1" t="str">
-        <v>Total Break Time</v>
+        <v>Duration4</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Station 5 Start</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Station 5 Finish</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Duration5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Station 6 Start</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Station 6 Finish</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Duration6</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Station 7 Start</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Station 7 Finish</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Duration7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>359</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3">
+        <v>365</v>
+      </c>
+      <c r="P3">
+        <v>392</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4">
+        <v>398</v>
+      </c>
+      <c r="P4">
+        <v>403</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>359</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6">
+        <v>365</v>
+      </c>
+      <c r="P6">
+        <v>392</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7">
+        <v>398</v>
+      </c>
+      <c r="P7">
+        <v>403</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>359</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9">
+        <v>365</v>
+      </c>
+      <c r="P9">
+        <v>392</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B10" t="str">
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10">
+        <v>398</v>
+      </c>
+      <c r="P10">
+        <v>403</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>359</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12">
+        <v>365</v>
+      </c>
+      <c r="P12">
+        <v>392</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13">
+        <v>398</v>
+      </c>
+      <c r="P13">
+        <v>403</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>359</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15">
+        <v>365</v>
+      </c>
+      <c r="P15">
+        <v>392</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16">
+        <v>398</v>
+      </c>
+      <c r="P16">
+        <v>403</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>359</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18">
+        <v>365</v>
+      </c>
+      <c r="P18">
+        <v>392</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>PCC3-20250624-0659-1794</v>
+      </c>
+      <c r="B19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19">
+        <v>398</v>
+      </c>
+      <c r="P19">
+        <v>403</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Product</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Station 1 Start</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Station 1 Finish</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Duration</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W19"/>
   </ignoredErrors>
 </worksheet>
 </file>